--- a/src/test/resources/testData.xlsx
+++ b/src/test/resources/testData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ECLIPSE WORKSPACES\Workspace1\SDET34L1\src\test\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ECLIPSE WORKSPACES\Workspace1\MyPracticeProject\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9237055C-232B-45BE-9C35-8457151FFF07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3154EC84-E33B-4DAD-9FC8-5AC27F312079}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Contact" sheetId="2" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="FetchDataFromDatabase" sheetId="8" r:id="rId5"/>
     <sheet name="Campaign" sheetId="5" r:id="rId6"/>
     <sheet name="MultipleloginData" sheetId="6" r:id="rId7"/>
+    <sheet name="checkout" sheetId="9" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="68">
   <si>
     <t>Login page</t>
   </si>
@@ -227,6 +228,15 @@
   </si>
   <si>
     <t>E:\\TestYantra Soft\\Vtiger SDET34L1 resources files\\backup testdata.xlsx</t>
+  </si>
+  <si>
+    <t>first name</t>
+  </si>
+  <si>
+    <t>Billing Details</t>
+  </si>
+  <si>
+    <t>Nirbhay</t>
   </si>
 </sst>
 </file>
@@ -1077,7 +1087,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2252F0E-866C-4613-816B-59D008040BC9}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
@@ -1129,4 +1139,32 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8D68DD3-2B77-4A5E-86A6-36F8DE1136D9}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>